--- a/PCE_results_PBE_eth.xlsx
+++ b/PCE_results_PBE_eth.xlsx
@@ -650,16 +650,16 @@
         <v>0.0444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02511899999999997</v>
+        <v>0.028547</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01928100000000003</v>
+        <v>0.015853</v>
       </c>
       <c r="E2" t="n">
-        <v>43.42567567567573</v>
+        <v>35.70495495495496</v>
       </c>
       <c r="F2" t="n">
-        <v>56.57432432432427</v>
+        <v>64.29504504504504</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -781,16 +781,16 @@
         <v>0.0541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04999300000000002</v>
+        <v>0.03804100000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004106999999999979</v>
+        <v>0.01605899999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>7.591497227356707</v>
+        <v>29.68391866913122</v>
       </c>
       <c r="F3" t="n">
-        <v>92.40850277264329</v>
+        <v>70.31608133086878</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -912,16 +912,16 @@
         <v>0.0505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04784300000000005</v>
+        <v>0.0392</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002656999999999944</v>
+        <v>0.0113</v>
       </c>
       <c r="E4" t="n">
-        <v>5.261386138613751</v>
+        <v>22.37623762376237</v>
       </c>
       <c r="F4" t="n">
-        <v>94.73861386138626</v>
+        <v>77.62376237623762</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1043,16 +1043,16 @@
         <v>0.0147</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02356399999999998</v>
+        <v>0.02655699999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008863999999999981</v>
+        <v>0.01185699999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>60.29931972789103</v>
+        <v>80.65986394557819</v>
       </c>
       <c r="F5" t="n">
-        <v>39.70068027210897</v>
+        <v>19.34013605442181</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1174,16 +1174,16 @@
         <v>0.0231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02459399999999996</v>
+        <v>0.02815699999999998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001493999999999961</v>
+        <v>0.005056999999999985</v>
       </c>
       <c r="E6" t="n">
-        <v>6.467532467532297</v>
+        <v>21.89177489177483</v>
       </c>
       <c r="F6" t="n">
-        <v>93.53246753246771</v>
+        <v>78.10822510822517</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1305,16 +1305,16 @@
         <v>0.0219</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03205700000000002</v>
+        <v>0.030577</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01015700000000002</v>
+        <v>0.008677000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>46.37899543379003</v>
+        <v>39.62100456621005</v>
       </c>
       <c r="F7" t="n">
-        <v>53.62100456620997</v>
+        <v>60.37899543378995</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1436,16 +1436,16 @@
         <v>0.0552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04653000000000004</v>
+        <v>0.03449700000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008669999999999956</v>
+        <v>0.02070299999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>15.70652173913036</v>
+        <v>37.50543478260867</v>
       </c>
       <c r="F8" t="n">
-        <v>84.29347826086965</v>
+        <v>62.49456521739133</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1567,16 +1567,16 @@
         <v>0.0444</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03593399999999999</v>
+        <v>0.03663000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008466000000000015</v>
+        <v>0.007769999999999992</v>
       </c>
       <c r="E9" t="n">
-        <v>19.0675675675676</v>
+        <v>17.49999999999998</v>
       </c>
       <c r="F9" t="n">
-        <v>80.93243243243239</v>
+        <v>82.50000000000001</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1698,16 +1698,16 @@
         <v>0.0441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03378099999999998</v>
+        <v>0.03512800000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01031900000000002</v>
+        <v>0.008971999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>23.39909297052158</v>
+        <v>20.34467120181404</v>
       </c>
       <c r="F10" t="n">
-        <v>76.60090702947842</v>
+        <v>79.65532879818596</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1829,16 +1829,16 @@
         <v>0.0304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02831800000000004</v>
+        <v>0.02883100000000002</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002081999999999962</v>
+        <v>0.00156899999999998</v>
       </c>
       <c r="E11" t="n">
-        <v>6.848684210526192</v>
+        <v>5.16118421052625</v>
       </c>
       <c r="F11" t="n">
-        <v>93.15131578947381</v>
+        <v>94.83881578947376</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1960,16 +1960,16 @@
         <v>0.0346</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03120400000000005</v>
+        <v>0.02921100000000002</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003395999999999948</v>
+        <v>0.005388999999999981</v>
       </c>
       <c r="E12" t="n">
-        <v>9.815028901733953</v>
+        <v>15.57514450867047</v>
       </c>
       <c r="F12" t="n">
-        <v>90.18497109826605</v>
+        <v>84.42485549132954</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2091,20 +2091,20 @@
         <v>0.0249</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02491700000000002</v>
+        <v>0.02739500000000002</v>
       </c>
       <c r="D13" t="n">
-        <v>1.7000000000017e-05</v>
+        <v>0.002495000000000018</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06827309236954619</v>
+        <v>10.02008032128521</v>
       </c>
       <c r="F13" t="n">
-        <v>99.93172690763045</v>
+        <v>89.97991967871479</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2222,16 +2222,16 @@
         <v>0.0341</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03468300000000002</v>
+        <v>0.03290800000000003</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000583000000000021</v>
+        <v>0.001191999999999971</v>
       </c>
       <c r="E14" t="n">
-        <v>1.7096774193549</v>
+        <v>3.495601173020443</v>
       </c>
       <c r="F14" t="n">
-        <v>98.2903225806451</v>
+        <v>96.50439882697955</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2353,16 +2353,16 @@
         <v>0.0371</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03522700000000002</v>
+        <v>0.032194</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001872999999999986</v>
+        <v>0.004906000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>5.048517520215595</v>
+        <v>13.22371967654987</v>
       </c>
       <c r="F15" t="n">
-        <v>94.9514824797844</v>
+        <v>86.77628032345014</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2484,16 +2484,16 @@
         <v>0.0553</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04875799999999996</v>
+        <v>0.035097</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006542000000000041</v>
+        <v>0.02020300000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>11.83001808318271</v>
+        <v>36.53345388788428</v>
       </c>
       <c r="F16" t="n">
-        <v>88.16998191681728</v>
+        <v>63.46654611211572</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2615,16 +2615,16 @@
         <v>0.0346</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03703100000000004</v>
+        <v>0.03257200000000003</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002431000000000037</v>
+        <v>0.002027999999999967</v>
       </c>
       <c r="E17" t="n">
-        <v>7.02601156069375</v>
+        <v>5.861271676300484</v>
       </c>
       <c r="F17" t="n">
-        <v>92.97398843930625</v>
+        <v>94.13872832369951</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2746,16 +2746,16 @@
         <v>0.0243</v>
       </c>
       <c r="C18" t="n">
-        <v>0.031601</v>
+        <v>0.029746</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007300999999999998</v>
+        <v>0.005445999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>30.04526748971193</v>
+        <v>22.41152263374486</v>
       </c>
       <c r="F18" t="n">
-        <v>69.95473251028807</v>
+        <v>77.58847736625515</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2877,16 +2877,16 @@
         <v>0.0349</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03660999999999998</v>
+        <v>0.033169</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001709999999999975</v>
+        <v>0.001731000000000003</v>
       </c>
       <c r="E19" t="n">
-        <v>4.89971346704864</v>
+        <v>4.959885386819494</v>
       </c>
       <c r="F19" t="n">
-        <v>95.10028653295136</v>
+        <v>95.04011461318051</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3008,20 +3008,20 @@
         <v>0.0215</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02159700000000002</v>
+        <v>0.02610700000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>9.700000000002415e-05</v>
+        <v>0.004607000000000014</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4511627906977868</v>
+        <v>21.42790697674425</v>
       </c>
       <c r="F20" t="n">
-        <v>99.54883720930221</v>
+        <v>78.57209302325575</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -3139,16 +3139,16 @@
         <v>0.0071</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01417700000000002</v>
+        <v>0.02613200000000002</v>
       </c>
       <c r="D21" t="n">
-        <v>0.007077000000000016</v>
+        <v>0.01903200000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>99.67605633802839</v>
+        <v>268.0563380281692</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3239436619716116</v>
+        <v>168.0563380281692</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3270,16 +3270,16 @@
         <v>0.0054</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01146199999999999</v>
+        <v>0.01865399999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.006061999999999994</v>
+        <v>0.01325399999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>112.2592592592592</v>
+        <v>245.4444444444443</v>
       </c>
       <c r="F22" t="n">
-        <v>12.25925925925915</v>
+        <v>145.4444444444443</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3401,16 +3401,16 @@
         <v>0.0119</v>
       </c>
       <c r="C23" t="n">
-        <v>0.010481</v>
+        <v>0.01729899999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001418999999999995</v>
+        <v>0.005398999999999996</v>
       </c>
       <c r="E23" t="n">
-        <v>11.92436974789912</v>
+        <v>45.36974789915963</v>
       </c>
       <c r="F23" t="n">
-        <v>88.07563025210088</v>
+        <v>54.63025210084037</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3532,16 +3532,16 @@
         <v>0.0022</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004837999999999999</v>
+        <v>0.01456899999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002637999999999998</v>
+        <v>0.01236899999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>119.9090909090908</v>
+        <v>562.2272727272722</v>
       </c>
       <c r="F24" t="n">
-        <v>19.90909090909084</v>
+        <v>462.2272727272722</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3663,16 +3663,16 @@
         <v>0.0024</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003933000000000007</v>
+        <v>0.01503699999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001533000000000007</v>
+        <v>0.01263699999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>63.87500000000029</v>
+        <v>526.5416666666663</v>
       </c>
       <c r="F25" t="n">
-        <v>36.12499999999971</v>
+        <v>426.5416666666663</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
